--- a/biology/Botanique/Fleur_jaune_Oxalide/Fleur_jaune_Oxalide.xlsx
+++ b/biology/Botanique/Fleur_jaune_Oxalide/Fleur_jaune_Oxalide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxalide des Bermudes
 Fleur jaune connue sous le nom de (Oxalide des Bermudes, Oxalis penchée ou Pied-de-chèvre). Possédant un gout agréablement acide et une saveur résultant de la forte concentration d'acide oxalique, la consommer modérément ne fait de mal ni aux humains ni aux animaux.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apparue en grande portion en Afrique du Sud, elle est maintenant dispersé partout dans le monde.
 </t>
@@ -545,15 +559,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme
-Oxalis des Bermudes pousse au ras du sol et a des feuilles qui ressemble à des trèfles. Les fleurs se compose de cinq pétales jaunes, qui se regroupent aux extrémités des tiges.
-Toxicité
-Chez l'homme
-Consommer modérément ne fait pas de mal, mais le manger même réduit de façon chronique; rend l'absorption du calcium par le corps réduite conduisant a la malnutrition (même cuite). Les personnes atteintes de Rhumatisme,  Arthrite, de goutte peuvent aggraver leur état en la consommant.  
-Chez l'animal
-Comme pour l’être humain, la consommer en petite quantité ne provoquera pas de réaction. Mais la manger en grande quantité pourrait provoquer de la salivation, des tremblements et des crampes pour les chiens et chats, et pourrait donner lieu à des coliques et à une insuffisance rénal pour les chevaux.
-Statut d'envahissement
-L'Oxalide des Bermudes est une mauvaise herbe, très envahissante et nuisible. Le meilleur moyen de s'en débarrasser est de l'arracher à la main (gantée) au début de l'automne ou au début du printemps et de nettoyer son milieu pour éviter qu'elle repousse.
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxalis des Bermudes pousse au ras du sol et a des feuilles qui ressemble à des trèfles. Les fleurs se compose de cinq pétales jaunes, qui se regroupent aux extrémités des tiges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consommer modérément ne fait pas de mal, mais le manger même réduit de façon chronique; rend l'absorption du calcium par le corps réduite conduisant a la malnutrition (même cuite). Les personnes atteintes de Rhumatisme,  Arthrite, de goutte peuvent aggraver leur état en la consommant.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chez l'animal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour l’être humain, la consommer en petite quantité ne provoquera pas de réaction. Mais la manger en grande quantité pourrait provoquer de la salivation, des tremblements et des crampes pour les chiens et chats, et pourrait donner lieu à des coliques et à une insuffisance rénal pour les chevaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fleur_jaune_Oxalide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Statut d'envahissement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Oxalide des Bermudes est une mauvaise herbe, très envahissante et nuisible. Le meilleur moyen de s'en débarrasser est de l'arracher à la main (gantée) au début de l'automne ou au début du printemps et de nettoyer son milieu pour éviter qu'elle repousse.
 </t>
         </is>
       </c>
